--- a/development/database/excel/chargeActivity.xlsx
+++ b/development/database/excel/chargeActivity.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14505" yWindow="-15" windowWidth="14340" windowHeight="11235"/>
+    <workbookView xWindow="14505" yWindow="15" windowWidth="14340" windowHeight="11205"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$F$5</definedName>
   </definedNames>
-  <calcPr calcId="124519" calcMode="manual"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="56">
   <si>
     <t>活动名称</t>
   </si>
@@ -225,34 +225,56 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2018-05-01 00:00:00</t>
-  </si>
-  <si>
-    <t>2018-05-08 00:00:00</t>
-  </si>
-  <si>
-    <t>2018-05-16 00:00:00</t>
-  </si>
-  <si>
-    <t>2018-05-23 00:00:00</t>
-  </si>
-  <si>
-    <t>2018-05-30 00:00:00</t>
-  </si>
-  <si>
-    <t>2018-06-07 00:00:00</t>
-  </si>
-  <si>
-    <t>2018-06-14 00:00:00</t>
-  </si>
-  <si>
-    <t>2018-06-21 00:00:00</t>
-  </si>
-  <si>
-    <t>2018-06-28 00:00:00</t>
-  </si>
-  <si>
     <t>2020-06-07 00:00:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-10-25 00:00:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-11-08 00:00:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-11-01 00:00:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-11-16 00:00:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-11-24 00:00:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-12-01 00:00:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-12-01 00:00:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-12-08 00:00:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-12-16 00:00:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-12-24 00:00:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-12-31 00:00:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-01-07 00:00:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -666,7 +688,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -748,10 +770,10 @@
         <v>42</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>34</v>
@@ -766,7 +788,7 @@
         <v>42</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>45</v>
@@ -786,7 +808,7 @@
         <v>45</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>35</v>
@@ -800,10 +822,10 @@
         <v>42</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>34</v>
@@ -817,10 +839,10 @@
         <v>42</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>35</v>
@@ -834,10 +856,10 @@
         <v>42</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>34</v>
@@ -851,10 +873,10 @@
         <v>42</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>35</v>
@@ -868,10 +890,10 @@
         <v>42</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>34</v>
@@ -885,10 +907,10 @@
         <v>42</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>35</v>
@@ -902,10 +924,10 @@
         <v>42</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>34</v>
@@ -919,10 +941,10 @@
         <v>42</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>35</v>
